--- a/POs to Confirm - December 04, 2023.xlsx
+++ b/POs to Confirm - December 04, 2023.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2801,7 +2801,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
